--- a/data/trans_orig/P15E_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15E_R-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>15365</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11542</v>
+        <v>11554</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18443</v>
+        <v>18994</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6776309287708105</v>
+        <v>0.6776309287708107</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5090305669525814</v>
+        <v>0.5095913408599596</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.813410267536343</v>
+        <v>0.8376982260221725</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -762,19 +762,19 @@
         <v>52667</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47047</v>
+        <v>47060</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56913</v>
+        <v>57190</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7848739351362184</v>
+        <v>0.7848739351362182</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7011217695929093</v>
+        <v>0.7013078766625316</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8481430717644936</v>
+        <v>0.8522721506405138</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>127</v>
@@ -783,19 +783,19 @@
         <v>68032</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61862</v>
+        <v>61160</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73800</v>
+        <v>73596</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7577887449780376</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6890595469372288</v>
+        <v>0.6812417395885212</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8220315906100514</v>
+        <v>0.8197597304509665</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>7309</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4231</v>
+        <v>3680</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11132</v>
+        <v>11120</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3223690712291894</v>
+        <v>0.3223690712291895</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1865897324636567</v>
+        <v>0.1623017739778277</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4909694330474178</v>
+        <v>0.4904086591400407</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -833,19 +833,19 @@
         <v>14436</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10190</v>
+        <v>9913</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20056</v>
+        <v>20043</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2151260648637817</v>
+        <v>0.2151260648637816</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1518569282355065</v>
+        <v>0.1477278493594864</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2988782304070907</v>
+        <v>0.2986921233374685</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>42</v>
@@ -854,19 +854,19 @@
         <v>21745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15977</v>
+        <v>16181</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27915</v>
+        <v>28617</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2422112550219626</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1779684093899487</v>
+        <v>0.1802402695490342</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3109404530627713</v>
+        <v>0.318758260411479</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>7067</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4069</v>
+        <v>4162</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9752</v>
+        <v>9888</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5794652005861091</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3336226366604515</v>
+        <v>0.3413103166200968</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7997080417521878</v>
+        <v>0.8108504142725079</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -979,19 +979,19 @@
         <v>8926</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6438</v>
+        <v>5878</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11290</v>
+        <v>11088</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6422621639314227</v>
+        <v>0.6422621639314225</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4632499144173962</v>
+        <v>0.4229349729656603</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8123316621624116</v>
+        <v>0.797795535153739</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -1000,19 +1000,19 @@
         <v>15993</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12125</v>
+        <v>12047</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19260</v>
+        <v>19727</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6129123927683022</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4646864207389615</v>
+        <v>0.4616841066724696</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7381230730035236</v>
+        <v>0.7560099038291754</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>5128</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2443</v>
+        <v>2307</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8126</v>
+        <v>8033</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.420534799413891</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2002919582478123</v>
+        <v>0.1891495857274921</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6663773633395492</v>
+        <v>0.6586896833799033</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1050,19 +1050,19 @@
         <v>4972</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2608</v>
+        <v>2810</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7460</v>
+        <v>8020</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3577378360685773</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1876683378375884</v>
+        <v>0.2022044648462611</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5367500855826041</v>
+        <v>0.5770650270343397</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -1071,19 +1071,19 @@
         <v>10100</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6833</v>
+        <v>6366</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13968</v>
+        <v>14046</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3870876072316977</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2618769269964762</v>
+        <v>0.2439900961708246</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5353135792610384</v>
+        <v>0.5383158933275305</v>
       </c>
     </row>
     <row r="9">
@@ -1175,7 +1175,7 @@
         <v>1962</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3235</v>
@@ -1184,7 +1184,7 @@
         <v>0.6065013656296054</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1442240696151806</v>
+        <v>0.1420982697860771</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1196,19 +1196,19 @@
         <v>3309</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1205</v>
+        <v>1469</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5235</v>
+        <v>5389</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4511063249992127</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1642662216759804</v>
+        <v>0.2002281154945656</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7137383443391946</v>
+        <v>0.7346316231662733</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1217,19 +1217,19 @@
         <v>5271</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2945</v>
+        <v>2782</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7680</v>
+        <v>7815</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4986629310447103</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2785872006120776</v>
+        <v>0.2631981261655256</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7265481510456036</v>
+        <v>0.7393106684906386</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2763</v>
+        <v>2768</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3934986343703946</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8540379844843778</v>
+        <v>0.8557759303848195</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1267,19 +1267,19 @@
         <v>4026</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2100</v>
+        <v>1946</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6130</v>
+        <v>5866</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5488936750007872</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2862616556608052</v>
+        <v>0.2653683768337274</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8357337783240196</v>
+        <v>0.7997718845054343</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1288,19 +1288,19 @@
         <v>5299</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2890</v>
+        <v>2755</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7625</v>
+        <v>7788</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5013370689552898</v>
+        <v>0.5013370689552897</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2734518489543963</v>
+        <v>0.2606893315093613</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7214127993879221</v>
+        <v>0.7368018738344743</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>24393</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18398</v>
+        <v>19214</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28648</v>
+        <v>29090</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6401745472237639</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4828359200218616</v>
+        <v>0.504242052078869</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7518346003207015</v>
+        <v>0.7634351258886519</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -1413,19 +1413,19 @@
         <v>64902</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58209</v>
+        <v>58377</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70229</v>
+        <v>70533</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7347210445728973</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6589505922656557</v>
+        <v>0.6608497567360229</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7950229964141448</v>
+        <v>0.7984646466867511</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>163</v>
@@ -1434,19 +1434,19 @@
         <v>89296</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81359</v>
+        <v>81296</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96590</v>
+        <v>96766</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7062284964069768</v>
+        <v>0.706228496406977</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6434565480938971</v>
+        <v>0.6429635256950378</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7639214385756894</v>
+        <v>0.7653103650234832</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>13711</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9456</v>
+        <v>9014</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19706</v>
+        <v>18890</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3598254527762362</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2481653996792983</v>
+        <v>0.236564874111348</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.517164079978138</v>
+        <v>0.4957579479211308</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -1484,19 +1484,19 @@
         <v>23434</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18107</v>
+        <v>17803</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30127</v>
+        <v>29959</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2652789554271027</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2049770035858551</v>
+        <v>0.2015353533132481</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3410494077343445</v>
+        <v>0.3391502432639761</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>67</v>
@@ -1505,19 +1505,19 @@
         <v>37144</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>29850</v>
+        <v>29674</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>45081</v>
+        <v>45144</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.293771503593023</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2360785614243105</v>
+        <v>0.2346896349765163</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3565434519061028</v>
+        <v>0.3570364743049624</v>
       </c>
     </row>
     <row r="15">
